--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_waste.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_waste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226F2E9-AE80-9146-8D3D-6B98EDE9845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63E14D-727B-1C4C-BFF9-A2701804222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="73">
   <si>
     <t>Name:</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -667,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,25 +849,18 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -871,16 +870,22 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -892,16 +897,13 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -916,26 +918,21 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>6.7247462020000004</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -945,24 +942,26 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>6.7247462020000004</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -972,19 +971,22 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>0.88</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -996,23 +998,21 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1021,29 +1021,23 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>644</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
+        <v>0.6</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1060,10 +1054,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1092,10 +1086,10 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>692</v>
+        <v>623</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1124,10 +1118,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
@@ -1156,10 +1150,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>806</v>
+        <v>711</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1188,10 +1182,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1220,10 +1214,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>906</v>
+        <v>833</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
@@ -1252,10 +1246,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>987</v>
+        <v>906</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1284,10 +1278,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>1025</v>
+        <v>987</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
@@ -1316,10 +1310,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>1134</v>
+        <v>1025</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1348,10 +1342,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>1284</v>
+        <v>1134</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -1380,10 +1374,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -1412,10 +1406,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>1426</v>
+        <v>1371</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -1444,10 +1438,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>1456</v>
+        <v>1426</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -1476,10 +1470,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>1536</v>
+        <v>1456</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -1508,10 +1502,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>1620</v>
+        <v>1536</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
@@ -1540,10 +1534,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>1824</v>
+        <v>1620</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -1572,10 +1566,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>1787</v>
+        <v>1824</v>
       </c>
       <c r="H34" t="s">
         <v>58</v>
@@ -1604,10 +1598,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>1833</v>
+        <v>1787</v>
       </c>
       <c r="H35" t="s">
         <v>58</v>
@@ -1636,10 +1630,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>1762</v>
+        <v>1833</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
@@ -1668,10 +1662,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>1849</v>
+        <v>1762</v>
       </c>
       <c r="H37" t="s">
         <v>58</v>
@@ -1700,10 +1694,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>1918</v>
+        <v>1849</v>
       </c>
       <c r="H38" t="s">
         <v>58</v>
@@ -1732,10 +1726,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>2021</v>
+        <v>1918</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -1764,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>2083</v>
+        <v>2021</v>
       </c>
       <c r="H40" t="s">
         <v>58</v>
@@ -1796,10 +1790,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>2200</v>
+        <v>2083</v>
       </c>
       <c r="H41" t="s">
         <v>58</v>
@@ -1828,10 +1822,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
@@ -1860,10 +1854,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>2349</v>
+        <v>2210</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
@@ -1892,7 +1886,7 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
         <v>2349</v>
@@ -1924,10 +1918,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>2327</v>
+        <v>2349</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
@@ -1956,10 +1950,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>2346</v>
+        <v>2327</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
@@ -1982,19 +1976,19 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>148</v>
+        <v>2346</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
@@ -2003,7 +1997,7 @@
         <v>59</v>
       </c>
       <c r="L47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2020,10 +2014,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H48" t="s">
         <v>61</v>
@@ -2052,10 +2046,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
         <v>61</v>
@@ -2084,10 +2078,10 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="H50" t="s">
         <v>61</v>
@@ -2116,10 +2110,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H51" t="s">
         <v>61</v>
@@ -2148,10 +2142,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H52" t="s">
         <v>61</v>
@@ -2180,10 +2174,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H53" t="s">
         <v>61</v>
@@ -2212,7 +2206,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
         <v>242</v>
@@ -2244,10 +2238,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
         <v>61</v>
@@ -2276,10 +2270,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H56" t="s">
         <v>61</v>
@@ -2308,10 +2302,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s">
         <v>61</v>
@@ -2340,10 +2334,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H58" t="s">
         <v>61</v>
@@ -2372,7 +2366,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
         <v>284</v>
@@ -2404,10 +2398,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H60" t="s">
         <v>61</v>
@@ -2436,10 +2430,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H61" t="s">
         <v>61</v>
@@ -2468,10 +2462,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H62" t="s">
         <v>61</v>
@@ -2500,10 +2494,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="H63" t="s">
         <v>61</v>
@@ -2532,10 +2526,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H64" t="s">
         <v>61</v>
@@ -2564,10 +2558,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H65" t="s">
         <v>61</v>
@@ -2596,10 +2590,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H66" t="s">
         <v>61</v>
@@ -2628,10 +2622,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="H67" t="s">
         <v>61</v>
@@ -2660,10 +2654,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H68" t="s">
         <v>61</v>
@@ -2692,10 +2686,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="H69" t="s">
         <v>61</v>
@@ -2724,10 +2718,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H70" t="s">
         <v>61</v>
@@ -2756,10 +2750,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H71" t="s">
         <v>61</v>
@@ -2788,10 +2782,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="H72" t="s">
         <v>61</v>
@@ -2820,10 +2814,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H73" t="s">
         <v>61</v>
@@ -2852,7 +2846,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
         <v>423</v>
@@ -2884,7 +2878,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
         <v>423</v>
@@ -2916,10 +2910,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H76" t="s">
         <v>61</v>
@@ -2942,16 +2936,16 @@
         <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="H77" t="s">
         <v>61</v>
@@ -2980,10 +2974,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
         <v>61</v>
@@ -3012,10 +3006,10 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
         <v>61</v>
@@ -3044,10 +3038,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H80" t="s">
         <v>61</v>
@@ -3076,10 +3070,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
         <v>61</v>
@@ -3108,10 +3102,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
         <v>61</v>
@@ -3140,10 +3134,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
         <v>61</v>
@@ -3172,10 +3166,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
         <v>61</v>
@@ -3204,10 +3198,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>61</v>
@@ -3236,10 +3230,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
         <v>61</v>
@@ -3268,10 +3262,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H87" t="s">
         <v>61</v>
@@ -3300,10 +3294,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H88" t="s">
         <v>61</v>
@@ -3332,10 +3326,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H89" t="s">
         <v>61</v>
@@ -3364,10 +3358,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>61</v>
@@ -3396,10 +3390,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H91" t="s">
         <v>61</v>
@@ -3428,10 +3422,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
         <v>61</v>
@@ -3460,10 +3454,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>61</v>
@@ -3492,10 +3486,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
         <v>61</v>
@@ -3524,10 +3518,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>61</v>
@@ -3556,10 +3550,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>61</v>
@@ -3588,10 +3582,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H97" t="s">
         <v>61</v>
@@ -3620,10 +3614,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
         <v>61</v>
@@ -3652,10 +3646,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>61</v>
@@ -3684,10 +3678,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
         <v>61</v>
@@ -3716,10 +3710,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>61</v>
@@ -3748,10 +3742,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>61</v>
@@ -3780,10 +3774,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H103" t="s">
         <v>61</v>
@@ -3812,10 +3806,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>61</v>
@@ -3844,7 +3838,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3876,7 +3870,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3902,13 +3896,13 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3940,7 +3934,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3972,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4004,7 +3998,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4036,7 +4030,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4068,7 +4062,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4100,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4132,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4164,7 +4158,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4196,7 +4190,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4228,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4260,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4292,7 +4286,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4324,7 +4318,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4356,7 +4350,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4388,7 +4382,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4420,7 +4414,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4452,7 +4446,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4484,10 +4478,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
         <v>61</v>
@@ -4516,10 +4510,10 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
         <v>61</v>
@@ -4548,7 +4542,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4580,10 +4574,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H128" t="s">
         <v>61</v>
@@ -4612,10 +4606,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H129" t="s">
         <v>61</v>
@@ -4644,7 +4638,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4676,10 +4670,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>61</v>
@@ -4708,10 +4702,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H132" t="s">
         <v>61</v>
@@ -4740,7 +4734,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4772,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4804,7 +4798,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4836,10 +4830,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>61</v>
@@ -4862,16 +4856,28 @@
         <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>61</v>
       </c>
       <c r="I137" t="s">
         <v>47</v>
+      </c>
+      <c r="J137" t="s">
+        <v>59</v>
+      </c>
+      <c r="L137" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4888,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
@@ -4908,7 +4914,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
@@ -4928,7 +4934,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4948,7 +4954,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4968,7 +4974,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4988,7 +4994,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -5008,7 +5014,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -5028,7 +5034,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -5048,7 +5054,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -5068,7 +5074,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -5088,7 +5094,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -5108,7 +5114,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -5128,7 +5134,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -5148,7 +5154,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -5168,7 +5174,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -5188,7 +5194,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -5208,7 +5214,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -5228,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -5248,7 +5254,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -5268,7 +5274,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5288,7 +5294,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5308,7 +5314,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5328,7 +5334,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5348,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5368,7 +5374,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5388,7 +5394,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5408,7 +5414,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5428,22 +5434,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>911</v>
-      </c>
-      <c r="H165" t="s">
-        <v>63</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
-      </c>
-      <c r="J165" t="s">
-        <v>64</v>
-      </c>
-      <c r="L165" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5460,10 +5454,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>911</v>
+      </c>
+      <c r="H166" t="s">
+        <v>63</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
+      </c>
+      <c r="J166" t="s">
+        <v>64</v>
+      </c>
+      <c r="L166" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5474,13 +5480,13 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5500,7 +5506,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5520,7 +5526,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5540,7 +5546,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5560,7 +5566,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5580,7 +5586,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5600,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5620,7 +5626,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5640,7 +5646,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5660,7 +5666,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5680,7 +5686,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5700,7 +5706,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5720,7 +5726,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5740,7 +5746,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5760,7 +5766,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5780,7 +5786,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5800,7 +5806,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5820,7 +5826,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5840,7 +5846,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5860,7 +5866,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5880,7 +5886,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5900,7 +5906,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5920,7 +5926,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5940,7 +5946,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5960,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5980,7 +5986,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -6000,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -6020,7 +6026,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -6040,22 +6046,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
-      </c>
-      <c r="G195">
-        <v>6000</v>
-      </c>
-      <c r="H195" t="s">
-        <v>63</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
-      </c>
-      <c r="J195" t="s">
-        <v>64</v>
-      </c>
-      <c r="L195" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6072,10 +6066,22 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G196">
+        <v>6000</v>
+      </c>
+      <c r="H196" t="s">
+        <v>63</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
+      </c>
+      <c r="J196" t="s">
+        <v>64</v>
+      </c>
+      <c r="L196" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6086,13 +6092,13 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -6112,7 +6118,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -6132,7 +6138,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -6152,7 +6158,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -6172,7 +6178,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -6192,7 +6198,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -6212,7 +6218,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -6232,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -6252,7 +6258,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -6272,7 +6278,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6292,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6312,13 +6318,13 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -6332,13 +6338,13 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -6352,13 +6358,13 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -6372,13 +6378,13 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -6392,13 +6398,13 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -6412,13 +6418,13 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -6432,13 +6438,13 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -6452,13 +6458,13 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -6472,13 +6478,13 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -6492,13 +6498,13 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6512,13 +6518,13 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -6532,13 +6538,13 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -6552,13 +6558,13 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -6572,13 +6578,13 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -6592,13 +6598,13 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -6612,13 +6618,13 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -6632,22 +6638,10 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="H224" t="s">
-        <v>66</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
-      </c>
-      <c r="J224" t="s">
-        <v>64</v>
-      </c>
-      <c r="L224" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6664,10 +6658,22 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
+        <v>2017</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225" t="s">
+        <v>66</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
+      </c>
+      <c r="J225" t="s">
+        <v>64</v>
+      </c>
+      <c r="L225" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6684,7 +6690,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6698,28 +6704,16 @@
         <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>61</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
-      </c>
-      <c r="J227" t="s">
-        <v>59</v>
-      </c>
-      <c r="L227" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6736,7 +6730,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6768,7 +6762,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6800,7 +6794,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6832,7 +6826,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6864,7 +6858,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6896,7 +6890,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6928,7 +6922,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6960,7 +6954,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6992,7 +6986,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7024,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7056,7 +7050,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7088,7 +7082,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7120,7 +7114,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7152,7 +7146,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7184,7 +7178,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7216,7 +7210,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7248,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7280,10 +7274,10 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H245" t="s">
         <v>61</v>
@@ -7312,10 +7306,10 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H246" t="s">
         <v>61</v>
@@ -7344,7 +7338,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7376,10 +7370,10 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H248" t="s">
         <v>61</v>
@@ -7408,10 +7402,10 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H249" t="s">
         <v>61</v>
@@ -7440,7 +7434,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7472,10 +7466,10 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H251" t="s">
         <v>61</v>
@@ -7504,10 +7498,10 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H252" t="s">
         <v>61</v>
@@ -7536,7 +7530,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7568,7 +7562,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7600,7 +7594,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7632,10 +7626,10 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" t="s">
         <v>61</v>
@@ -7650,7 +7644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7658,22 +7652,31 @@
         <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
         <v>1</v>
       </c>
+      <c r="H257" t="s">
+        <v>61</v>
+      </c>
       <c r="I257" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" t="s">
+        <v>59</v>
+      </c>
+      <c r="L257" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7687,16 +7690,16 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.9</v>
@@ -7719,7 +7722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.9</v>
@@ -7742,7 +7745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.9</v>
@@ -7765,7 +7768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.9</v>
@@ -7788,7 +7791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.9</v>
@@ -7811,7 +7814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.9</v>
@@ -7834,7 +7837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.9</v>
@@ -7857,7 +7860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.9</v>
@@ -7880,7 +7883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7894,7 +7897,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.9</v>
@@ -7903,7 +7906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7917,7 +7920,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.9</v>
@@ -7926,7 +7929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.9</v>
@@ -7949,7 +7952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.9</v>
@@ -7972,7 +7975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.9</v>
@@ -7995,7 +7998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.9</v>
@@ -8032,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.9</v>
@@ -8055,7 +8058,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.9</v>
@@ -8078,7 +8081,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.9</v>
@@ -8101,7 +8104,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.9</v>
@@ -8124,7 +8127,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.9</v>
@@ -8147,7 +8150,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.9</v>
@@ -8170,7 +8173,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.9</v>
@@ -8193,7 +8196,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.9</v>
@@ -8216,7 +8219,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.9</v>
@@ -8239,7 +8242,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.9</v>
@@ -8247,9 +8250,6 @@
       <c r="I282" t="s">
         <v>47</v>
       </c>
-      <c r="J282" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -8265,7 +8265,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.9</v>
@@ -8273,6 +8273,9 @@
       <c r="I283" t="s">
         <v>47</v>
       </c>
+      <c r="J283" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -8288,7 +8291,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.9</v>
@@ -8311,7 +8314,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.9</v>
@@ -8334,7 +8337,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.9</v>
@@ -8351,22 +8354,19 @@
         <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
-      </c>
-      <c r="J287" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8383,13 +8383,16 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
+      </c>
+      <c r="J288" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -8406,7 +8409,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.1</v>
@@ -8429,7 +8432,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.1</v>
@@ -8452,7 +8455,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.1</v>
@@ -8475,7 +8478,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.1</v>
@@ -8498,7 +8501,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.1</v>
@@ -8521,7 +8524,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.1</v>
@@ -8544,7 +8547,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.1</v>
@@ -8567,7 +8570,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.1</v>
@@ -8590,7 +8593,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.1</v>
@@ -8613,7 +8616,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.1</v>
@@ -8636,7 +8639,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.1</v>
@@ -8659,7 +8662,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.1</v>
@@ -8682,7 +8685,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.1</v>
@@ -8705,7 +8708,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.1</v>
@@ -8728,7 +8731,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.1</v>
@@ -8751,7 +8754,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.1</v>
@@ -8774,7 +8777,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.1</v>
@@ -8797,7 +8800,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.1</v>
@@ -8820,7 +8823,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.1</v>
@@ -8843,7 +8846,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.1</v>
@@ -8866,7 +8869,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.1</v>
@@ -8889,7 +8892,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.1</v>
@@ -8912,7 +8915,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.1</v>
@@ -8935,7 +8938,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.1</v>
@@ -8958,7 +8961,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.1</v>
@@ -8981,7 +8984,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.1</v>
@@ -9004,7 +9007,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.1</v>
@@ -9027,7 +9030,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.1</v>
@@ -9036,11 +9039,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.1</v>
+      </c>
+      <c r="I317" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_waste.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_waste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63E14D-727B-1C4C-BFF9-A2701804222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AABD97-8B78-8441-B63D-5844AC52CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -673,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,16 +788,16 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7">
-        <v>0.141307988</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -800,16 +809,16 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
       <c r="G8">
-        <v>0.73924900000000004</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -821,26 +830,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
+        <v>0.141307988</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -850,17 +851,18 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
+        <v>0.73924900000000004</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -869,17 +871,17 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
@@ -887,7 +889,9 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -896,19 +900,18 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -918,19 +921,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -942,26 +948,18 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>6.7247462020000004</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
       </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" t="s">
-        <v>54</v>
-      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -971,22 +969,19 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -998,21 +993,26 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0.88</v>
+        <v>6.7247462020000004</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1022,23 +1022,24 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>0.6</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" t="s">
-        <v>57</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1047,30 +1048,22 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>644</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
+        <v>0.88</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1079,29 +1072,23 @@
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>623</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
+        <v>0.6</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1118,10 +1105,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>692</v>
+        <v>644</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
@@ -1150,10 +1137,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>711</v>
+        <v>623</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1182,10 +1169,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>806</v>
+        <v>692</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1214,10 +1201,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>833</v>
+        <v>711</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
@@ -1246,10 +1233,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>906</v>
+        <v>806</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1278,10 +1265,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>987</v>
+        <v>833</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
@@ -1310,10 +1297,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>1025</v>
+        <v>906</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1342,10 +1329,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>1134</v>
+        <v>987</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -1374,10 +1361,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>1284</v>
+        <v>1025</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -1406,10 +1393,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>1371</v>
+        <v>1134</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -1438,10 +1425,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>1426</v>
+        <v>1284</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -1470,10 +1457,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>1456</v>
+        <v>1371</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -1502,10 +1489,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>1536</v>
+        <v>1426</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
@@ -1534,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>1620</v>
+        <v>1456</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -1566,10 +1553,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>1824</v>
+        <v>1536</v>
       </c>
       <c r="H34" t="s">
         <v>58</v>
@@ -1598,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>1787</v>
+        <v>1620</v>
       </c>
       <c r="H35" t="s">
         <v>58</v>
@@ -1630,10 +1617,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
@@ -1662,10 +1649,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>1762</v>
+        <v>1787</v>
       </c>
       <c r="H37" t="s">
         <v>58</v>
@@ -1694,10 +1681,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="H38" t="s">
         <v>58</v>
@@ -1726,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>1918</v>
+        <v>1762</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -1758,10 +1745,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>2021</v>
+        <v>1849</v>
       </c>
       <c r="H40" t="s">
         <v>58</v>
@@ -1790,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>2083</v>
+        <v>1918</v>
       </c>
       <c r="H41" t="s">
         <v>58</v>
@@ -1822,10 +1809,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>2200</v>
+        <v>2021</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
@@ -1854,10 +1841,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>2210</v>
+        <v>2083</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
@@ -1886,10 +1873,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>2349</v>
+        <v>2200</v>
       </c>
       <c r="H44" t="s">
         <v>58</v>
@@ -1918,10 +1905,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>2349</v>
+        <v>2210</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
@@ -1950,10 +1937,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>2327</v>
+        <v>2349</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
@@ -1982,10 +1969,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="H47" t="s">
         <v>58</v>
@@ -2008,19 +1995,19 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>148</v>
+        <v>2327</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
@@ -2029,7 +2016,7 @@
         <v>59</v>
       </c>
       <c r="L48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2040,19 +2027,19 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>154</v>
+        <v>2346</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
@@ -2061,7 +2048,7 @@
         <v>59</v>
       </c>
       <c r="L49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2078,10 +2065,10 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H50" t="s">
         <v>61</v>
@@ -2110,10 +2097,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
         <v>61</v>
@@ -2142,10 +2129,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
         <v>61</v>
@@ -2174,10 +2161,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="H53" t="s">
         <v>61</v>
@@ -2206,10 +2193,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="H54" t="s">
         <v>61</v>
@@ -2238,10 +2225,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H55" t="s">
         <v>61</v>
@@ -2270,10 +2257,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H56" t="s">
         <v>61</v>
@@ -2302,10 +2289,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
         <v>61</v>
@@ -2334,10 +2321,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H58" t="s">
         <v>61</v>
@@ -2366,10 +2353,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H59" t="s">
         <v>61</v>
@@ -2398,10 +2385,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H60" t="s">
         <v>61</v>
@@ -2430,10 +2417,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H61" t="s">
         <v>61</v>
@@ -2462,10 +2449,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="H62" t="s">
         <v>61</v>
@@ -2494,10 +2481,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H63" t="s">
         <v>61</v>
@@ -2526,10 +2513,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="H64" t="s">
         <v>61</v>
@@ -2558,10 +2545,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="H65" t="s">
         <v>61</v>
@@ -2590,10 +2577,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H66" t="s">
         <v>61</v>
@@ -2622,10 +2609,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
         <v>61</v>
@@ -2654,10 +2641,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="H68" t="s">
         <v>61</v>
@@ -2686,10 +2673,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H69" t="s">
         <v>61</v>
@@ -2718,10 +2705,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="H70" t="s">
         <v>61</v>
@@ -2750,10 +2737,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="H71" t="s">
         <v>61</v>
@@ -2782,10 +2769,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H72" t="s">
         <v>61</v>
@@ -2814,10 +2801,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H73" t="s">
         <v>61</v>
@@ -2846,10 +2833,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="H74" t="s">
         <v>61</v>
@@ -2878,10 +2865,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H75" t="s">
         <v>61</v>
@@ -2910,7 +2897,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
         <v>423</v>
@@ -2942,10 +2929,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H77" t="s">
         <v>61</v>
@@ -2968,16 +2955,16 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="H78" t="s">
         <v>61</v>
@@ -3000,16 +2987,16 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>6</v>
+        <v>422</v>
       </c>
       <c r="H79" t="s">
         <v>61</v>
@@ -3038,10 +3025,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>61</v>
@@ -3070,10 +3057,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H81" t="s">
         <v>61</v>
@@ -3102,10 +3089,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H82" t="s">
         <v>61</v>
@@ -3134,10 +3121,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
         <v>61</v>
@@ -3166,10 +3153,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
         <v>61</v>
@@ -3198,10 +3185,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
         <v>61</v>
@@ -3230,10 +3217,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
         <v>61</v>
@@ -3262,10 +3249,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>61</v>
@@ -3294,10 +3281,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
         <v>61</v>
@@ -3326,10 +3313,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
         <v>61</v>
@@ -3358,10 +3345,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
         <v>61</v>
@@ -3390,10 +3377,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H91" t="s">
         <v>61</v>
@@ -3422,10 +3409,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>61</v>
@@ -3454,10 +3441,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H93" t="s">
         <v>61</v>
@@ -3486,10 +3473,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
         <v>61</v>
@@ -3518,10 +3505,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>61</v>
@@ -3550,10 +3537,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
         <v>61</v>
@@ -3582,10 +3569,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
         <v>61</v>
@@ -3614,10 +3601,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>61</v>
@@ -3646,10 +3633,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H99" t="s">
         <v>61</v>
@@ -3678,10 +3665,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
         <v>61</v>
@@ -3710,10 +3697,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>61</v>
@@ -3742,10 +3729,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H102" t="s">
         <v>61</v>
@@ -3774,10 +3761,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>61</v>
@@ -3806,10 +3793,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>61</v>
@@ -3838,10 +3825,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H105" t="s">
         <v>61</v>
@@ -3870,10 +3857,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>61</v>
@@ -3902,7 +3889,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3928,13 +3915,13 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3960,13 +3947,13 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3998,7 +3985,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4030,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4062,7 +4049,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4094,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4126,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4158,7 +4145,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4190,7 +4177,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4222,7 +4209,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4254,7 +4241,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4286,7 +4273,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4318,7 +4305,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4350,7 +4337,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4382,7 +4369,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4414,7 +4401,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4446,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4478,7 +4465,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4510,10 +4497,10 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H126" t="s">
         <v>61</v>
@@ -4542,7 +4529,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4574,10 +4561,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
         <v>61</v>
@@ -4606,10 +4593,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H129" t="s">
         <v>61</v>
@@ -4638,7 +4625,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4670,10 +4657,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H131" t="s">
         <v>61</v>
@@ -4702,10 +4689,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H132" t="s">
         <v>61</v>
@@ -4734,7 +4721,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4766,10 +4753,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H134" t="s">
         <v>61</v>
@@ -4798,7 +4785,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4830,7 +4817,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4862,10 +4849,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>61</v>
@@ -4888,16 +4875,28 @@
         <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>61</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
+      </c>
+      <c r="J138" t="s">
+        <v>59</v>
+      </c>
+      <c r="L138" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4908,16 +4907,28 @@
         <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>61</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
+      </c>
+      <c r="J139" t="s">
+        <v>59</v>
+      </c>
+      <c r="L139" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4934,7 +4945,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
@@ -4954,7 +4965,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4974,7 +4985,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4994,7 +5005,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -5014,7 +5025,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -5034,7 +5045,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -5054,7 +5065,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -5074,7 +5085,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -5094,7 +5105,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -5114,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -5134,7 +5145,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -5154,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -5174,7 +5185,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -5194,7 +5205,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -5214,7 +5225,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -5234,7 +5245,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -5254,7 +5265,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -5274,7 +5285,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5294,7 +5305,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5314,7 +5325,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5334,7 +5345,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5354,7 +5365,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5374,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5394,7 +5405,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5414,7 +5425,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5434,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5454,22 +5465,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>911</v>
-      </c>
-      <c r="H166" t="s">
-        <v>63</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
-      </c>
-      <c r="J166" t="s">
-        <v>64</v>
-      </c>
-      <c r="L166" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5486,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5500,16 +5499,28 @@
         <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G168">
+        <v>911</v>
+      </c>
+      <c r="H168" t="s">
+        <v>63</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
+      </c>
+      <c r="J168" t="s">
+        <v>64</v>
+      </c>
+      <c r="L168" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5520,13 +5531,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5546,7 +5557,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5566,7 +5577,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5586,7 +5597,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5606,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5626,7 +5637,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5646,7 +5657,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5666,7 +5677,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5686,7 +5697,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5706,7 +5717,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5726,7 +5737,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5746,7 +5757,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5766,7 +5777,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5786,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5806,7 +5817,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5826,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5846,7 +5857,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5866,7 +5877,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5886,7 +5897,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5906,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5926,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5946,7 +5957,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5966,7 +5977,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5986,7 +5997,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -6006,7 +6017,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -6026,7 +6037,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -6046,7 +6057,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
@@ -6066,22 +6077,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
-      </c>
-      <c r="G196">
-        <v>6000</v>
-      </c>
-      <c r="H196" t="s">
-        <v>63</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
-      </c>
-      <c r="J196" t="s">
-        <v>64</v>
-      </c>
-      <c r="L196" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6098,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -6112,16 +6111,28 @@
         <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>6000</v>
+      </c>
+      <c r="H198" t="s">
+        <v>63</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
+      </c>
+      <c r="J198" t="s">
+        <v>64</v>
+      </c>
+      <c r="L198" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6132,13 +6143,13 @@
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -6158,7 +6169,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -6178,7 +6189,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -6198,7 +6209,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -6218,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -6238,7 +6249,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -6258,7 +6269,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -6278,7 +6289,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6298,7 +6309,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6318,7 +6329,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6338,7 +6349,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6358,7 +6369,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6378,7 +6389,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6398,7 +6409,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6418,7 +6429,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6438,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6458,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6478,7 +6489,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6498,7 +6509,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6518,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6538,7 +6549,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6558,7 +6569,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6578,7 +6589,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6598,7 +6609,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6618,7 +6629,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6638,7 +6649,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6658,22 +6669,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225" t="s">
-        <v>66</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
-      </c>
-      <c r="J225" t="s">
-        <v>64</v>
-      </c>
-      <c r="L225" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6690,7 +6689,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6710,10 +6709,22 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227" t="s">
+        <v>66</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
+      </c>
+      <c r="J227" t="s">
+        <v>64</v>
+      </c>
+      <c r="L227" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6724,28 +6735,16 @@
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>61</v>
+        <v>2018</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
-      </c>
-      <c r="J228" t="s">
-        <v>59</v>
-      </c>
-      <c r="L228" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6756,28 +6755,16 @@
         <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>61</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
-      </c>
-      <c r="J229" t="s">
-        <v>59</v>
-      </c>
-      <c r="L229" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6794,7 +6781,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6826,7 +6813,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6858,7 +6845,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6890,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6922,7 +6909,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6954,7 +6941,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6986,7 +6973,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7018,7 +7005,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7050,7 +7037,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7082,7 +7069,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7114,7 +7101,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7146,7 +7133,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7178,7 +7165,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7210,7 +7197,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7242,7 +7229,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7274,7 +7261,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7306,10 +7293,10 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H246" t="s">
         <v>61</v>
@@ -7338,7 +7325,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7370,10 +7357,10 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H248" t="s">
         <v>61</v>
@@ -7402,10 +7389,10 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H249" t="s">
         <v>61</v>
@@ -7434,7 +7421,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7466,10 +7453,10 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H251" t="s">
         <v>61</v>
@@ -7498,10 +7485,10 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H252" t="s">
         <v>61</v>
@@ -7530,7 +7517,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7562,10 +7549,10 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H254" t="s">
         <v>61</v>
@@ -7594,7 +7581,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7626,7 +7613,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7658,10 +7645,10 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" t="s">
         <v>61</v>
@@ -7684,19 +7671,28 @@
         <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>61</v>
       </c>
       <c r="I258" t="s">
         <v>47</v>
+      </c>
+      <c r="J258" t="s">
+        <v>59</v>
+      </c>
+      <c r="L258" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7707,19 +7703,28 @@
         <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="H259" t="s">
+        <v>61</v>
       </c>
       <c r="I259" t="s">
         <v>47</v>
+      </c>
+      <c r="J259" t="s">
+        <v>59</v>
+      </c>
+      <c r="L259" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7736,10 +7741,10 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
@@ -7759,7 +7764,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.9</v>
@@ -7782,7 +7787,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.9</v>
@@ -7805,7 +7810,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.9</v>
@@ -7828,7 +7833,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.9</v>
@@ -7851,7 +7856,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.9</v>
@@ -7874,7 +7879,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.9</v>
@@ -7897,7 +7902,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.9</v>
@@ -7920,7 +7925,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.9</v>
@@ -7943,7 +7948,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.9</v>
@@ -7966,7 +7971,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.9</v>
@@ -7989,7 +7994,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.9</v>
@@ -8012,7 +8017,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.9</v>
@@ -8035,7 +8040,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.9</v>
@@ -8058,7 +8063,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.9</v>
@@ -8081,7 +8086,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.9</v>
@@ -8104,7 +8109,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.9</v>
@@ -8127,7 +8132,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.9</v>
@@ -8150,7 +8155,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.9</v>
@@ -8173,7 +8178,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.9</v>
@@ -8196,7 +8201,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.9</v>
@@ -8219,7 +8224,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.9</v>
@@ -8242,7 +8247,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.9</v>
@@ -8265,7 +8270,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.9</v>
@@ -8273,9 +8278,6 @@
       <c r="I283" t="s">
         <v>47</v>
       </c>
-      <c r="J283" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -8291,7 +8293,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.9</v>
@@ -8314,7 +8316,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.9</v>
@@ -8322,6 +8324,9 @@
       <c r="I285" t="s">
         <v>47</v>
       </c>
+      <c r="J285" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -8337,7 +8342,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.9</v>
@@ -8360,7 +8365,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.9</v>
@@ -8377,25 +8382,22 @@
         <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
       </c>
-      <c r="J288" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -8403,22 +8405,22 @@
         <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -8432,16 +8434,19 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -8455,7 +8460,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.1</v>
@@ -8464,7 +8469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>16</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.1</v>
@@ -8487,7 +8492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>16</v>
       </c>
@@ -8501,7 +8506,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.1</v>
@@ -8510,7 +8515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>16</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.1</v>
@@ -8533,7 +8538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.1</v>
@@ -8556,7 +8561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.1</v>
@@ -8579,7 +8584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -8593,7 +8598,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.1</v>
@@ -8602,7 +8607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -8616,7 +8621,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.1</v>
@@ -8625,7 +8630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.1</v>
@@ -8648,7 +8653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -8662,7 +8667,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.1</v>
@@ -8671,7 +8676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.1</v>
@@ -8694,7 +8699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.1</v>
@@ -8717,7 +8722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.1</v>
@@ -8740,7 +8745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.1</v>
@@ -8777,7 +8782,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.1</v>
@@ -8800,7 +8805,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.1</v>
@@ -8823,7 +8828,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.1</v>
@@ -8846,7 +8851,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.1</v>
@@ -8869,7 +8874,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.1</v>
@@ -8892,7 +8897,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.1</v>
@@ -8915,7 +8920,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.1</v>
@@ -8938,7 +8943,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.1</v>
@@ -8961,7 +8966,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.1</v>
@@ -8984,7 +8989,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.1</v>
@@ -9007,7 +9012,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.1</v>
@@ -9030,7 +9035,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.1</v>
@@ -9053,7 +9058,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.1</v>
@@ -9062,11 +9067,57 @@
         <v>47</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.1</v>
+      </c>
+      <c r="I318" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.1</v>
+      </c>
+      <c r="I319" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_waste.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_waste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AABD97-8B78-8441-B63D-5844AC52CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E0A2C-969D-ED46-994D-A7F77DD8C387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="77">
   <si>
     <t>Name:</t>
   </si>
@@ -161,12 +161,6 @@
     <t>output_efficiency</t>
   </si>
   <si>
-    <t>CHE_conv_chp_waste.xlsx</t>
-  </si>
-  <si>
-    <t>conv_chp_waste</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -261,6 +252,18 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>conv_chp_WASTE</t>
+  </si>
+  <si>
+    <t>CHE_convchp_WASTE.xlsx</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -767,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -785,16 +788,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -806,16 +809,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -827,16 +830,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>0.141307988</v>
@@ -848,16 +851,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>0.73924900000000004</v>
@@ -869,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -881,16 +884,16 @@
         <v>0.25</v>
       </c>
       <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -898,19 +901,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -918,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -930,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -945,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -957,7 +963,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -966,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -978,10 +984,10 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -990,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -1002,16 +1008,16 @@
         <v>6.7247462020000004</v>
       </c>
       <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
         <v>52</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1019,7 +1025,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -1031,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
         <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1046,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
@@ -1058,10 +1064,10 @@
         <v>0.88</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1070,7 +1076,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>33</v>
@@ -1082,13 +1088,13 @@
         <v>0.6</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1096,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1111,16 +1117,16 @@
         <v>644</v>
       </c>
       <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
         <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1128,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1143,16 +1149,16 @@
         <v>623</v>
       </c>
       <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
         <v>58</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1160,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1175,16 +1181,16 @@
         <v>692</v>
       </c>
       <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" t="s">
         <v>58</v>
-      </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1192,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1207,16 +1213,16 @@
         <v>711</v>
       </c>
       <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" t="s">
         <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1224,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1239,16 +1245,16 @@
         <v>806</v>
       </c>
       <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
         <v>58</v>
-      </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1256,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1271,16 +1277,16 @@
         <v>833</v>
       </c>
       <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
         <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1288,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -1303,16 +1309,16 @@
         <v>906</v>
       </c>
       <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" t="s">
         <v>58</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1320,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -1335,16 +1341,16 @@
         <v>987</v>
       </c>
       <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" t="s">
         <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1352,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -1367,16 +1373,16 @@
         <v>1025</v>
       </c>
       <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" t="s">
         <v>58</v>
-      </c>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1384,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1399,16 +1405,16 @@
         <v>1134</v>
       </c>
       <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" t="s">
         <v>58</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1416,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1431,16 +1437,16 @@
         <v>1284</v>
       </c>
       <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" t="s">
         <v>58</v>
-      </c>
-      <c r="I30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1448,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -1463,16 +1469,16 @@
         <v>1371</v>
       </c>
       <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" t="s">
         <v>58</v>
-      </c>
-      <c r="I31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1480,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -1495,16 +1501,16 @@
         <v>1426</v>
       </c>
       <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" t="s">
         <v>58</v>
-      </c>
-      <c r="I32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1512,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -1527,16 +1533,16 @@
         <v>1456</v>
       </c>
       <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" t="s">
         <v>58</v>
-      </c>
-      <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1544,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1559,16 +1565,16 @@
         <v>1536</v>
       </c>
       <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" t="s">
         <v>58</v>
-      </c>
-      <c r="I34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1576,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1591,16 +1597,16 @@
         <v>1620</v>
       </c>
       <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" t="s">
         <v>58</v>
-      </c>
-      <c r="I35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1608,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -1623,16 +1629,16 @@
         <v>1824</v>
       </c>
       <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
         <v>58</v>
-      </c>
-      <c r="I36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1640,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -1655,16 +1661,16 @@
         <v>1787</v>
       </c>
       <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" t="s">
         <v>58</v>
-      </c>
-      <c r="I37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1672,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -1687,16 +1693,16 @@
         <v>1833</v>
       </c>
       <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" t="s">
         <v>58</v>
-      </c>
-      <c r="I38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1704,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -1719,16 +1725,16 @@
         <v>1762</v>
       </c>
       <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" t="s">
         <v>58</v>
-      </c>
-      <c r="I39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1736,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -1751,16 +1757,16 @@
         <v>1849</v>
       </c>
       <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" t="s">
         <v>58</v>
-      </c>
-      <c r="I40" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1768,7 +1774,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -1783,16 +1789,16 @@
         <v>1918</v>
       </c>
       <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
         <v>58</v>
-      </c>
-      <c r="I41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L41" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1800,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -1815,16 +1821,16 @@
         <v>2021</v>
       </c>
       <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" t="s">
         <v>58</v>
-      </c>
-      <c r="I42" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" t="s">
-        <v>59</v>
-      </c>
-      <c r="L42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1832,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -1847,16 +1853,16 @@
         <v>2083</v>
       </c>
       <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" t="s">
         <v>58</v>
-      </c>
-      <c r="I43" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" t="s">
-        <v>59</v>
-      </c>
-      <c r="L43" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1864,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -1879,16 +1885,16 @@
         <v>2200</v>
       </c>
       <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" t="s">
         <v>58</v>
-      </c>
-      <c r="I44" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L44" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1896,7 +1902,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -1911,16 +1917,16 @@
         <v>2210</v>
       </c>
       <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" t="s">
         <v>58</v>
-      </c>
-      <c r="I45" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1928,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -1943,16 +1949,16 @@
         <v>2349</v>
       </c>
       <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" t="s">
         <v>58</v>
-      </c>
-      <c r="I46" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L46" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1960,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1975,16 +1981,16 @@
         <v>2349</v>
       </c>
       <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" t="s">
         <v>58</v>
-      </c>
-      <c r="I47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" t="s">
-        <v>59</v>
-      </c>
-      <c r="L47" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1992,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2007,16 +2013,16 @@
         <v>2327</v>
       </c>
       <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" t="s">
         <v>58</v>
-      </c>
-      <c r="I48" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" t="s">
-        <v>59</v>
-      </c>
-      <c r="L48" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2024,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -2039,16 +2045,16 @@
         <v>2346</v>
       </c>
       <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" t="s">
         <v>58</v>
-      </c>
-      <c r="I49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" t="s">
-        <v>59</v>
-      </c>
-      <c r="L49" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2056,7 +2062,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -2071,16 +2077,16 @@
         <v>148</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,7 +2094,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -2103,16 +2109,16 @@
         <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2120,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2135,16 +2141,16 @@
         <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2152,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -2167,16 +2173,16 @@
         <v>196</v>
       </c>
       <c r="H53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2184,7 +2190,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2199,16 +2205,16 @@
         <v>209</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2216,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -2231,16 +2237,16 @@
         <v>227</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2248,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -2263,16 +2269,16 @@
         <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2280,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -2295,16 +2301,16 @@
         <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -2327,16 +2333,16 @@
         <v>261</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -2359,16 +2365,16 @@
         <v>269</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2376,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -2391,16 +2397,16 @@
         <v>274</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,7 +2414,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2423,16 +2429,16 @@
         <v>284</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -2455,16 +2461,16 @@
         <v>284</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -2487,16 +2493,16 @@
         <v>293</v>
       </c>
       <c r="H63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2504,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -2519,16 +2525,16 @@
         <v>305</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -2551,16 +2557,16 @@
         <v>308</v>
       </c>
       <c r="H65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2568,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -2583,16 +2589,16 @@
         <v>335</v>
       </c>
       <c r="H66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2600,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -2615,16 +2621,16 @@
         <v>336</v>
       </c>
       <c r="H67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2632,7 +2638,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -2647,16 +2653,16 @@
         <v>332</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -2679,16 +2685,16 @@
         <v>339</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2696,7 +2702,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -2711,16 +2717,16 @@
         <v>358</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2728,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -2743,16 +2749,16 @@
         <v>349</v>
       </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2760,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -2775,16 +2781,16 @@
         <v>398</v>
       </c>
       <c r="H72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2792,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -2807,16 +2813,16 @@
         <v>401</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2824,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -2839,16 +2845,16 @@
         <v>394</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2856,7 +2862,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -2871,16 +2877,16 @@
         <v>422</v>
       </c>
       <c r="H75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2888,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -2903,16 +2909,16 @@
         <v>423</v>
       </c>
       <c r="H76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,7 +2926,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -2935,16 +2941,16 @@
         <v>423</v>
       </c>
       <c r="H77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2952,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2967,16 +2973,16 @@
         <v>423</v>
       </c>
       <c r="H78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2999,16 +3005,16 @@
         <v>422</v>
       </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3016,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -3031,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3048,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -3063,16 +3069,16 @@
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3080,7 +3086,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
@@ -3095,16 +3101,16 @@
         <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3112,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -3127,16 +3133,16 @@
         <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3144,7 +3150,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -3159,16 +3165,16 @@
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3176,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
@@ -3191,16 +3197,16 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3208,7 +3214,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
@@ -3223,16 +3229,16 @@
         <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
@@ -3255,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3272,7 +3278,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
@@ -3287,16 +3293,16 @@
         <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3304,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
@@ -3319,16 +3325,16 @@
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3336,7 +3342,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
@@ -3351,16 +3357,16 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3368,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
@@ -3383,16 +3389,16 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -3415,16 +3421,16 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3432,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
@@ -3447,16 +3453,16 @@
         <v>9</v>
       </c>
       <c r="H93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3464,7 +3470,7 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
         <v>19</v>
@@ -3479,16 +3485,16 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3496,7 +3502,7 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
@@ -3511,16 +3517,16 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3528,7 +3534,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
@@ -3543,16 +3549,16 @@
         <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3560,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
@@ -3575,16 +3581,16 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L97" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3592,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
@@ -3607,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3624,7 +3630,7 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -3639,16 +3645,16 @@
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3656,7 +3662,7 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -3671,16 +3677,16 @@
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L100" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3688,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
@@ -3703,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3720,7 +3726,7 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
@@ -3735,16 +3741,16 @@
         <v>49</v>
       </c>
       <c r="H102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3752,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
@@ -3767,16 +3773,16 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3784,7 +3790,7 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
@@ -3799,16 +3805,16 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L104" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3816,7 +3822,7 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -3831,16 +3837,16 @@
         <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3848,7 +3854,7 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -3863,16 +3869,16 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3880,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -3895,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -3912,7 +3918,7 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -3927,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3944,7 +3950,7 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -3959,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3976,7 +3982,7 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -3991,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J110" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4008,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C111" t="s">
         <v>20</v>
@@ -4023,16 +4029,16 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4040,7 +4046,7 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
@@ -4055,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4072,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
@@ -4087,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L113" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4104,7 +4110,7 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
@@ -4119,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4136,7 +4142,7 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
@@ -4151,16 +4157,16 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L115" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4168,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
@@ -4183,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J116" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L116" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4200,7 +4206,7 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
@@ -4215,16 +4221,16 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4232,7 +4238,7 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
@@ -4247,16 +4253,16 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J118" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L118" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4264,7 +4270,7 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
         <v>20</v>
@@ -4279,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L119" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4296,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s">
         <v>20</v>
@@ -4311,16 +4317,16 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L120" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4328,7 +4334,7 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
@@ -4343,16 +4349,16 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J121" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L121" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4360,7 +4366,7 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
@@ -4375,16 +4381,16 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L122" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4392,7 +4398,7 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
@@ -4407,16 +4413,16 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L123" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4424,7 +4430,7 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
@@ -4439,16 +4445,16 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L124" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4456,7 +4462,7 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
@@ -4471,16 +4477,16 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J125" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L125" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4488,7 +4494,7 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -4503,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L126" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4520,7 +4526,7 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s">
         <v>20</v>
@@ -4535,16 +4541,16 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J127" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L127" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4552,7 +4558,7 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C128" t="s">
         <v>20</v>
@@ -4567,16 +4573,16 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J128" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4584,7 +4590,7 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
@@ -4599,16 +4605,16 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J129" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4616,7 +4622,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C130" t="s">
         <v>20</v>
@@ -4631,16 +4637,16 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J130" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4648,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C131" t="s">
         <v>20</v>
@@ -4663,16 +4669,16 @@
         <v>9</v>
       </c>
       <c r="H131" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L131" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4680,7 +4686,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C132" t="s">
         <v>20</v>
@@ -4695,16 +4701,16 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J132" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L132" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4712,7 +4718,7 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C133" t="s">
         <v>20</v>
@@ -4727,16 +4733,16 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L133" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4744,7 +4750,7 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C134" t="s">
         <v>20</v>
@@ -4759,16 +4765,16 @@
         <v>7</v>
       </c>
       <c r="H134" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J134" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L134" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4776,7 +4782,7 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C135" t="s">
         <v>20</v>
@@ -4791,16 +4797,16 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J135" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L135" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4808,7 +4814,7 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C136" t="s">
         <v>20</v>
@@ -4823,16 +4829,16 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J136" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L136" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -4840,7 +4846,7 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C137" t="s">
         <v>20</v>
@@ -4855,16 +4861,16 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J137" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L137" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4872,7 +4878,7 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C138" t="s">
         <v>20</v>
@@ -4887,16 +4893,16 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J138" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L138" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4904,7 +4910,7 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C139" t="s">
         <v>20</v>
@@ -4919,16 +4925,16 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J139" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L139" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4936,7 +4942,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C140" t="s">
         <v>23</v>
@@ -4948,7 +4954,7 @@
         <v>1990</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4956,7 +4962,7 @@
         <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C141" t="s">
         <v>23</v>
@@ -4968,7 +4974,7 @@
         <v>1991</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4976,7 +4982,7 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C142" t="s">
         <v>23</v>
@@ -4988,7 +4994,7 @@
         <v>1992</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4996,7 +5002,7 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
@@ -5008,7 +5014,7 @@
         <v>1993</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5016,7 +5022,7 @@
         <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C144" t="s">
         <v>23</v>
@@ -5028,7 +5034,7 @@
         <v>1994</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -5036,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C145" t="s">
         <v>23</v>
@@ -5048,7 +5054,7 @@
         <v>1995</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5056,7 +5062,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -5068,7 +5074,7 @@
         <v>1996</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -5076,7 +5082,7 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C147" t="s">
         <v>23</v>
@@ -5088,7 +5094,7 @@
         <v>1997</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -5096,7 +5102,7 @@
         <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s">
         <v>23</v>
@@ -5108,7 +5114,7 @@
         <v>1998</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -5116,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C149" t="s">
         <v>23</v>
@@ -5128,7 +5134,7 @@
         <v>1999</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -5136,7 +5142,7 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C150" t="s">
         <v>23</v>
@@ -5148,7 +5154,7 @@
         <v>2000</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -5156,7 +5162,7 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C151" t="s">
         <v>23</v>
@@ -5168,7 +5174,7 @@
         <v>2001</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -5176,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C152" t="s">
         <v>23</v>
@@ -5188,7 +5194,7 @@
         <v>2002</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -5196,7 +5202,7 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C153" t="s">
         <v>23</v>
@@ -5208,7 +5214,7 @@
         <v>2003</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -5216,7 +5222,7 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C154" t="s">
         <v>23</v>
@@ -5228,7 +5234,7 @@
         <v>2004</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5236,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C155" t="s">
         <v>23</v>
@@ -5248,7 +5254,7 @@
         <v>2005</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -5256,7 +5262,7 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C156" t="s">
         <v>23</v>
@@ -5268,7 +5274,7 @@
         <v>2006</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -5276,7 +5282,7 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C157" t="s">
         <v>23</v>
@@ -5288,7 +5294,7 @@
         <v>2007</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -5296,7 +5302,7 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C158" t="s">
         <v>23</v>
@@ -5308,7 +5314,7 @@
         <v>2008</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -5316,7 +5322,7 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
@@ -5328,7 +5334,7 @@
         <v>2009</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -5336,7 +5342,7 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C160" t="s">
         <v>23</v>
@@ -5348,7 +5354,7 @@
         <v>2010</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -5356,7 +5362,7 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C161" t="s">
         <v>23</v>
@@ -5368,7 +5374,7 @@
         <v>2011</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -5376,7 +5382,7 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s">
         <v>23</v>
@@ -5388,7 +5394,7 @@
         <v>2012</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -5396,7 +5402,7 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -5408,7 +5414,7 @@
         <v>2013</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -5416,7 +5422,7 @@
         <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C164" t="s">
         <v>23</v>
@@ -5428,7 +5434,7 @@
         <v>2014</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -5436,7 +5442,7 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C165" t="s">
         <v>23</v>
@@ -5448,7 +5454,7 @@
         <v>2015</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5456,7 +5462,7 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -5468,7 +5474,7 @@
         <v>2016</v>
       </c>
       <c r="I166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5476,7 +5482,7 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -5488,7 +5494,7 @@
         <v>2017</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -5496,7 +5502,7 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -5511,16 +5517,16 @@
         <v>911</v>
       </c>
       <c r="H168" t="s">
+        <v>61</v>
+      </c>
+      <c r="I168" t="s">
+        <v>45</v>
+      </c>
+      <c r="J168" t="s">
+        <v>62</v>
+      </c>
+      <c r="L168" t="s">
         <v>63</v>
-      </c>
-      <c r="I168" t="s">
-        <v>47</v>
-      </c>
-      <c r="J168" t="s">
-        <v>64</v>
-      </c>
-      <c r="L168" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5528,7 +5534,7 @@
         <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -5540,7 +5546,7 @@
         <v>2019</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5548,7 +5554,7 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
@@ -5560,7 +5566,7 @@
         <v>1990</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -5568,7 +5574,7 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
@@ -5580,7 +5586,7 @@
         <v>1991</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -5588,7 +5594,7 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
@@ -5600,7 +5606,7 @@
         <v>1992</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -5608,7 +5614,7 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
@@ -5620,7 +5626,7 @@
         <v>1993</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -5628,7 +5634,7 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -5640,7 +5646,7 @@
         <v>1994</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -5648,7 +5654,7 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
@@ -5660,7 +5666,7 @@
         <v>1995</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -5668,7 +5674,7 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
@@ -5680,7 +5686,7 @@
         <v>1996</v>
       </c>
       <c r="I176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -5688,7 +5694,7 @@
         <v>16</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
@@ -5700,7 +5706,7 @@
         <v>1997</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -5708,7 +5714,7 @@
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C178" t="s">
         <v>24</v>
@@ -5720,7 +5726,7 @@
         <v>1998</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -5728,7 +5734,7 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C179" t="s">
         <v>24</v>
@@ -5740,7 +5746,7 @@
         <v>1999</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -5748,7 +5754,7 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C180" t="s">
         <v>24</v>
@@ -5760,7 +5766,7 @@
         <v>2000</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -5768,7 +5774,7 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
@@ -5780,7 +5786,7 @@
         <v>2001</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -5788,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
@@ -5800,7 +5806,7 @@
         <v>2002</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -5808,7 +5814,7 @@
         <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
@@ -5820,7 +5826,7 @@
         <v>2003</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -5828,7 +5834,7 @@
         <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C184" t="s">
         <v>24</v>
@@ -5840,7 +5846,7 @@
         <v>2004</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -5848,7 +5854,7 @@
         <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C185" t="s">
         <v>24</v>
@@ -5860,7 +5866,7 @@
         <v>2005</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -5868,7 +5874,7 @@
         <v>16</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
@@ -5880,7 +5886,7 @@
         <v>2006</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -5888,7 +5894,7 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C187" t="s">
         <v>24</v>
@@ -5900,7 +5906,7 @@
         <v>2007</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -5908,7 +5914,7 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C188" t="s">
         <v>24</v>
@@ -5920,7 +5926,7 @@
         <v>2008</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -5928,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
@@ -5940,7 +5946,7 @@
         <v>2009</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -5948,7 +5954,7 @@
         <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C190" t="s">
         <v>24</v>
@@ -5960,7 +5966,7 @@
         <v>2010</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -5968,7 +5974,7 @@
         <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
@@ -5980,7 +5986,7 @@
         <v>2011</v>
       </c>
       <c r="I191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -5988,7 +5994,7 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C192" t="s">
         <v>24</v>
@@ -6000,7 +6006,7 @@
         <v>2012</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -6008,7 +6014,7 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C193" t="s">
         <v>24</v>
@@ -6020,7 +6026,7 @@
         <v>2013</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -6028,7 +6034,7 @@
         <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C194" t="s">
         <v>24</v>
@@ -6040,7 +6046,7 @@
         <v>2014</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -6048,7 +6054,7 @@
         <v>16</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C195" t="s">
         <v>24</v>
@@ -6060,7 +6066,7 @@
         <v>2015</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6068,7 +6074,7 @@
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C196" t="s">
         <v>24</v>
@@ -6080,7 +6086,7 @@
         <v>2016</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6088,7 +6094,7 @@
         <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -6100,7 +6106,7 @@
         <v>2017</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -6108,7 +6114,7 @@
         <v>16</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
@@ -6123,16 +6129,16 @@
         <v>6000</v>
       </c>
       <c r="H198" t="s">
+        <v>61</v>
+      </c>
+      <c r="I198" t="s">
+        <v>45</v>
+      </c>
+      <c r="J198" t="s">
+        <v>62</v>
+      </c>
+      <c r="L198" t="s">
         <v>63</v>
-      </c>
-      <c r="I198" t="s">
-        <v>47</v>
-      </c>
-      <c r="J198" t="s">
-        <v>64</v>
-      </c>
-      <c r="L198" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6140,7 +6146,7 @@
         <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -6152,7 +6158,7 @@
         <v>2019</v>
       </c>
       <c r="I199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6160,7 +6166,7 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C200" t="s">
         <v>25</v>
@@ -6172,7 +6178,7 @@
         <v>1990</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -6180,7 +6186,7 @@
         <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C201" t="s">
         <v>25</v>
@@ -6192,7 +6198,7 @@
         <v>1991</v>
       </c>
       <c r="I201" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6200,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C202" t="s">
         <v>25</v>
@@ -6212,7 +6218,7 @@
         <v>1992</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6220,7 +6226,7 @@
         <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C203" t="s">
         <v>25</v>
@@ -6232,7 +6238,7 @@
         <v>1993</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -6240,7 +6246,7 @@
         <v>16</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C204" t="s">
         <v>25</v>
@@ -6252,7 +6258,7 @@
         <v>1994</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -6260,7 +6266,7 @@
         <v>16</v>
       </c>
       <c r="B205" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C205" t="s">
         <v>25</v>
@@ -6272,7 +6278,7 @@
         <v>1995</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -6280,7 +6286,7 @@
         <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C206" t="s">
         <v>25</v>
@@ -6292,7 +6298,7 @@
         <v>1996</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -6300,7 +6306,7 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C207" t="s">
         <v>25</v>
@@ -6312,7 +6318,7 @@
         <v>1997</v>
       </c>
       <c r="I207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -6320,7 +6326,7 @@
         <v>16</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C208" t="s">
         <v>25</v>
@@ -6332,7 +6338,7 @@
         <v>1998</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -6340,7 +6346,7 @@
         <v>16</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C209" t="s">
         <v>25</v>
@@ -6352,7 +6358,7 @@
         <v>1999</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -6360,7 +6366,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C210" t="s">
         <v>25</v>
@@ -6372,7 +6378,7 @@
         <v>2000</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -6380,7 +6386,7 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C211" t="s">
         <v>25</v>
@@ -6392,7 +6398,7 @@
         <v>2001</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -6400,7 +6406,7 @@
         <v>16</v>
       </c>
       <c r="B212" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C212" t="s">
         <v>25</v>
@@ -6412,7 +6418,7 @@
         <v>2002</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -6420,7 +6426,7 @@
         <v>16</v>
       </c>
       <c r="B213" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C213" t="s">
         <v>25</v>
@@ -6432,7 +6438,7 @@
         <v>2003</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -6440,7 +6446,7 @@
         <v>16</v>
       </c>
       <c r="B214" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C214" t="s">
         <v>25</v>
@@ -6452,7 +6458,7 @@
         <v>2004</v>
       </c>
       <c r="I214" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -6460,7 +6466,7 @@
         <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C215" t="s">
         <v>25</v>
@@ -6472,7 +6478,7 @@
         <v>2005</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -6480,7 +6486,7 @@
         <v>16</v>
       </c>
       <c r="B216" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
         <v>25</v>
@@ -6492,7 +6498,7 @@
         <v>2006</v>
       </c>
       <c r="I216" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -6500,7 +6506,7 @@
         <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C217" t="s">
         <v>25</v>
@@ -6512,7 +6518,7 @@
         <v>2007</v>
       </c>
       <c r="I217" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -6520,7 +6526,7 @@
         <v>16</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C218" t="s">
         <v>25</v>
@@ -6532,7 +6538,7 @@
         <v>2008</v>
       </c>
       <c r="I218" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -6540,7 +6546,7 @@
         <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C219" t="s">
         <v>25</v>
@@ -6552,7 +6558,7 @@
         <v>2009</v>
       </c>
       <c r="I219" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -6560,7 +6566,7 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C220" t="s">
         <v>25</v>
@@ -6572,7 +6578,7 @@
         <v>2010</v>
       </c>
       <c r="I220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -6580,7 +6586,7 @@
         <v>16</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C221" t="s">
         <v>25</v>
@@ -6592,7 +6598,7 @@
         <v>2011</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -6600,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C222" t="s">
         <v>25</v>
@@ -6612,7 +6618,7 @@
         <v>2012</v>
       </c>
       <c r="I222" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -6620,7 +6626,7 @@
         <v>16</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C223" t="s">
         <v>25</v>
@@ -6632,7 +6638,7 @@
         <v>2013</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -6640,7 +6646,7 @@
         <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C224" t="s">
         <v>25</v>
@@ -6652,7 +6658,7 @@
         <v>2014</v>
       </c>
       <c r="I224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6660,7 +6666,7 @@
         <v>16</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C225" t="s">
         <v>25</v>
@@ -6672,7 +6678,7 @@
         <v>2015</v>
       </c>
       <c r="I225" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6680,7 +6686,7 @@
         <v>16</v>
       </c>
       <c r="B226" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C226" t="s">
         <v>25</v>
@@ -6692,7 +6698,7 @@
         <v>2016</v>
       </c>
       <c r="I226" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6700,7 +6706,7 @@
         <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -6715,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I227" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J227" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L227" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6732,7 +6738,7 @@
         <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -6744,7 +6750,7 @@
         <v>2018</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6752,7 +6758,7 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
@@ -6764,7 +6770,7 @@
         <v>2019</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6772,7 +6778,7 @@
         <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C230" t="s">
         <v>26</v>
@@ -6787,16 +6793,16 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J230" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L230" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6804,7 +6810,7 @@
         <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C231" t="s">
         <v>26</v>
@@ -6819,16 +6825,16 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I231" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J231" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L231" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -6836,7 +6842,7 @@
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C232" t="s">
         <v>26</v>
@@ -6851,16 +6857,16 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J232" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L232" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -6868,7 +6874,7 @@
         <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C233" t="s">
         <v>26</v>
@@ -6883,16 +6889,16 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J233" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L233" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -6900,7 +6906,7 @@
         <v>16</v>
       </c>
       <c r="B234" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C234" t="s">
         <v>26</v>
@@ -6915,16 +6921,16 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I234" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J234" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L234" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -6932,7 +6938,7 @@
         <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C235" t="s">
         <v>26</v>
@@ -6947,16 +6953,16 @@
         <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J235" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L235" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -6964,7 +6970,7 @@
         <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C236" t="s">
         <v>26</v>
@@ -6979,16 +6985,16 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J236" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L236" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -6996,7 +7002,7 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C237" t="s">
         <v>26</v>
@@ -7011,16 +7017,16 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J237" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L237" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -7028,7 +7034,7 @@
         <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C238" t="s">
         <v>26</v>
@@ -7043,16 +7049,16 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J238" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L238" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -7060,7 +7066,7 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C239" t="s">
         <v>26</v>
@@ -7075,16 +7081,16 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J239" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L239" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -7092,7 +7098,7 @@
         <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C240" t="s">
         <v>26</v>
@@ -7107,16 +7113,16 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J240" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L240" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -7124,7 +7130,7 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C241" t="s">
         <v>26</v>
@@ -7139,16 +7145,16 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I241" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J241" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L241" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -7156,7 +7162,7 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C242" t="s">
         <v>26</v>
@@ -7171,16 +7177,16 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J242" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L242" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7188,7 +7194,7 @@
         <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C243" t="s">
         <v>26</v>
@@ -7203,16 +7209,16 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I243" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J243" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L243" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7220,7 +7226,7 @@
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C244" t="s">
         <v>26</v>
@@ -7235,16 +7241,16 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I244" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J244" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L244" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7252,7 +7258,7 @@
         <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C245" t="s">
         <v>26</v>
@@ -7267,16 +7273,16 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J245" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L245" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7284,7 +7290,7 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C246" t="s">
         <v>26</v>
@@ -7299,16 +7305,16 @@
         <v>0</v>
       </c>
       <c r="H246" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I246" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J246" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L246" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7316,7 +7322,7 @@
         <v>16</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C247" t="s">
         <v>26</v>
@@ -7331,16 +7337,16 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I247" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J247" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L247" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7348,7 +7354,7 @@
         <v>16</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -7363,16 +7369,16 @@
         <v>4</v>
       </c>
       <c r="H248" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I248" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J248" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L248" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7380,7 +7386,7 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C249" t="s">
         <v>26</v>
@@ -7395,16 +7401,16 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I249" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J249" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L249" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7412,7 +7418,7 @@
         <v>16</v>
       </c>
       <c r="B250" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C250" t="s">
         <v>26</v>
@@ -7427,16 +7433,16 @@
         <v>0</v>
       </c>
       <c r="H250" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I250" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J250" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L250" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7444,7 +7450,7 @@
         <v>16</v>
       </c>
       <c r="B251" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C251" t="s">
         <v>26</v>
@@ -7459,16 +7465,16 @@
         <v>9</v>
       </c>
       <c r="H251" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I251" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J251" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L251" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7476,7 +7482,7 @@
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C252" t="s">
         <v>26</v>
@@ -7491,16 +7497,16 @@
         <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I252" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J252" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L252" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7508,7 +7514,7 @@
         <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C253" t="s">
         <v>26</v>
@@ -7523,16 +7529,16 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I253" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J253" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L253" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7540,7 +7546,7 @@
         <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C254" t="s">
         <v>26</v>
@@ -7555,16 +7561,16 @@
         <v>7</v>
       </c>
       <c r="H254" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I254" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J254" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L254" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7572,7 +7578,7 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C255" t="s">
         <v>26</v>
@@ -7587,16 +7593,16 @@
         <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I255" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J255" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L255" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7604,7 +7610,7 @@
         <v>16</v>
       </c>
       <c r="B256" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
         <v>26</v>
@@ -7619,16 +7625,16 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I256" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J256" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L256" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7636,7 +7642,7 @@
         <v>16</v>
       </c>
       <c r="B257" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -7651,16 +7657,16 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J257" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L257" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7668,7 +7674,7 @@
         <v>16</v>
       </c>
       <c r="B258" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -7683,16 +7689,16 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I258" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J258" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L258" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7700,7 +7706,7 @@
         <v>16</v>
       </c>
       <c r="B259" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -7715,16 +7721,16 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J259" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L259" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7732,7 +7738,7 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -7747,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7755,7 +7761,7 @@
         <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -7770,7 +7776,7 @@
         <v>0.9</v>
       </c>
       <c r="I261" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7778,7 +7784,7 @@
         <v>16</v>
       </c>
       <c r="B262" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -7793,7 +7799,7 @@
         <v>0.9</v>
       </c>
       <c r="I262" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7801,7 +7807,7 @@
         <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -7816,7 +7822,7 @@
         <v>0.9</v>
       </c>
       <c r="I263" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7824,7 +7830,7 @@
         <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -7839,7 +7845,7 @@
         <v>0.9</v>
       </c>
       <c r="I264" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7847,7 +7853,7 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -7862,7 +7868,7 @@
         <v>0.9</v>
       </c>
       <c r="I265" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7870,7 +7876,7 @@
         <v>16</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -7885,7 +7891,7 @@
         <v>0.9</v>
       </c>
       <c r="I266" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7893,7 +7899,7 @@
         <v>16</v>
       </c>
       <c r="B267" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -7908,7 +7914,7 @@
         <v>0.9</v>
       </c>
       <c r="I267" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7916,7 +7922,7 @@
         <v>16</v>
       </c>
       <c r="B268" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -7931,7 +7937,7 @@
         <v>0.9</v>
       </c>
       <c r="I268" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7939,7 +7945,7 @@
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -7954,7 +7960,7 @@
         <v>0.9</v>
       </c>
       <c r="I269" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -7962,7 +7968,7 @@
         <v>16</v>
       </c>
       <c r="B270" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -7977,7 +7983,7 @@
         <v>0.9</v>
       </c>
       <c r="I270" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -7985,7 +7991,7 @@
         <v>16</v>
       </c>
       <c r="B271" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -8000,7 +8006,7 @@
         <v>0.9</v>
       </c>
       <c r="I271" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8008,7 +8014,7 @@
         <v>16</v>
       </c>
       <c r="B272" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -8023,7 +8029,7 @@
         <v>0.9</v>
       </c>
       <c r="I272" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
@@ -8031,7 +8037,7 @@
         <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -8046,7 +8052,7 @@
         <v>0.9</v>
       </c>
       <c r="I273" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
@@ -8054,7 +8060,7 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -8069,7 +8075,7 @@
         <v>0.9</v>
       </c>
       <c r="I274" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
@@ -8077,7 +8083,7 @@
         <v>16</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -8092,7 +8098,7 @@
         <v>0.9</v>
       </c>
       <c r="I275" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -8100,7 +8106,7 @@
         <v>16</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -8115,7 +8121,7 @@
         <v>0.9</v>
       </c>
       <c r="I276" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -8123,7 +8129,7 @@
         <v>16</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -8138,7 +8144,7 @@
         <v>0.9</v>
       </c>
       <c r="I277" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -8146,7 +8152,7 @@
         <v>16</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -8161,7 +8167,7 @@
         <v>0.9</v>
       </c>
       <c r="I278" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
@@ -8169,7 +8175,7 @@
         <v>16</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -8184,7 +8190,7 @@
         <v>0.9</v>
       </c>
       <c r="I279" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -8192,7 +8198,7 @@
         <v>16</v>
       </c>
       <c r="B280" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -8207,7 +8213,7 @@
         <v>0.9</v>
       </c>
       <c r="I280" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
@@ -8215,7 +8221,7 @@
         <v>16</v>
       </c>
       <c r="B281" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -8230,7 +8236,7 @@
         <v>0.9</v>
       </c>
       <c r="I281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -8238,7 +8244,7 @@
         <v>16</v>
       </c>
       <c r="B282" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -8253,7 +8259,7 @@
         <v>0.9</v>
       </c>
       <c r="I282" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -8261,7 +8267,7 @@
         <v>16</v>
       </c>
       <c r="B283" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -8276,7 +8282,7 @@
         <v>0.9</v>
       </c>
       <c r="I283" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
@@ -8284,7 +8290,7 @@
         <v>16</v>
       </c>
       <c r="B284" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -8299,7 +8305,7 @@
         <v>0.9</v>
       </c>
       <c r="I284" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
@@ -8307,7 +8313,7 @@
         <v>16</v>
       </c>
       <c r="B285" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -8322,10 +8328,10 @@
         <v>0.9</v>
       </c>
       <c r="I285" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J285" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
@@ -8333,7 +8339,7 @@
         <v>16</v>
       </c>
       <c r="B286" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -8348,7 +8354,7 @@
         <v>0.9</v>
       </c>
       <c r="I286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -8356,7 +8362,7 @@
         <v>16</v>
       </c>
       <c r="B287" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -8371,7 +8377,7 @@
         <v>0.9</v>
       </c>
       <c r="I287" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8379,7 +8385,7 @@
         <v>16</v>
       </c>
       <c r="B288" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -8394,7 +8400,7 @@
         <v>0.9</v>
       </c>
       <c r="I288" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -8402,7 +8408,7 @@
         <v>16</v>
       </c>
       <c r="B289" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -8417,7 +8423,7 @@
         <v>0.9</v>
       </c>
       <c r="I289" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
@@ -8425,7 +8431,7 @@
         <v>16</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -8440,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J290" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8451,7 +8457,7 @@
         <v>16</v>
       </c>
       <c r="B291" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -8466,7 +8472,7 @@
         <v>0.1</v>
       </c>
       <c r="I291" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8474,7 +8480,7 @@
         <v>16</v>
       </c>
       <c r="B292" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -8489,7 +8495,7 @@
         <v>0.1</v>
       </c>
       <c r="I292" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -8497,7 +8503,7 @@
         <v>16</v>
       </c>
       <c r="B293" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -8512,7 +8518,7 @@
         <v>0.1</v>
       </c>
       <c r="I293" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -8520,7 +8526,7 @@
         <v>16</v>
       </c>
       <c r="B294" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -8535,7 +8541,7 @@
         <v>0.1</v>
       </c>
       <c r="I294" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -8543,7 +8549,7 @@
         <v>16</v>
       </c>
       <c r="B295" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -8558,7 +8564,7 @@
         <v>0.1</v>
       </c>
       <c r="I295" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -8566,7 +8572,7 @@
         <v>16</v>
       </c>
       <c r="B296" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -8581,7 +8587,7 @@
         <v>0.1</v>
       </c>
       <c r="I296" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -8589,7 +8595,7 @@
         <v>16</v>
       </c>
       <c r="B297" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -8604,7 +8610,7 @@
         <v>0.1</v>
       </c>
       <c r="I297" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -8612,7 +8618,7 @@
         <v>16</v>
       </c>
       <c r="B298" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -8627,7 +8633,7 @@
         <v>0.1</v>
       </c>
       <c r="I298" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -8635,7 +8641,7 @@
         <v>16</v>
       </c>
       <c r="B299" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C299" t="s">
         <v>29</v>
@@ -8650,7 +8656,7 @@
         <v>0.1</v>
       </c>
       <c r="I299" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -8658,7 +8664,7 @@
         <v>16</v>
       </c>
       <c r="B300" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -8673,7 +8679,7 @@
         <v>0.1</v>
       </c>
       <c r="I300" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -8681,7 +8687,7 @@
         <v>16</v>
       </c>
       <c r="B301" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -8696,7 +8702,7 @@
         <v>0.1</v>
       </c>
       <c r="I301" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
@@ -8704,7 +8710,7 @@
         <v>16</v>
       </c>
       <c r="B302" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -8719,7 +8725,7 @@
         <v>0.1</v>
       </c>
       <c r="I302" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -8727,7 +8733,7 @@
         <v>16</v>
       </c>
       <c r="B303" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -8742,7 +8748,7 @@
         <v>0.1</v>
       </c>
       <c r="I303" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -8750,7 +8756,7 @@
         <v>16</v>
       </c>
       <c r="B304" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -8765,7 +8771,7 @@
         <v>0.1</v>
       </c>
       <c r="I304" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -8773,7 +8779,7 @@
         <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -8788,7 +8794,7 @@
         <v>0.1</v>
       </c>
       <c r="I305" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -8796,7 +8802,7 @@
         <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -8811,7 +8817,7 @@
         <v>0.1</v>
       </c>
       <c r="I306" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -8819,7 +8825,7 @@
         <v>16</v>
       </c>
       <c r="B307" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -8834,7 +8840,7 @@
         <v>0.1</v>
       </c>
       <c r="I307" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -8842,7 +8848,7 @@
         <v>16</v>
       </c>
       <c r="B308" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -8857,7 +8863,7 @@
         <v>0.1</v>
       </c>
       <c r="I308" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -8865,7 +8871,7 @@
         <v>16</v>
       </c>
       <c r="B309" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -8880,7 +8886,7 @@
         <v>0.1</v>
       </c>
       <c r="I309" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -8888,7 +8894,7 @@
         <v>16</v>
       </c>
       <c r="B310" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -8903,7 +8909,7 @@
         <v>0.1</v>
       </c>
       <c r="I310" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -8911,7 +8917,7 @@
         <v>16</v>
       </c>
       <c r="B311" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -8926,7 +8932,7 @@
         <v>0.1</v>
       </c>
       <c r="I311" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -8934,7 +8940,7 @@
         <v>16</v>
       </c>
       <c r="B312" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -8949,7 +8955,7 @@
         <v>0.1</v>
       </c>
       <c r="I312" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -8957,7 +8963,7 @@
         <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C313" t="s">
         <v>29</v>
@@ -8972,7 +8978,7 @@
         <v>0.1</v>
       </c>
       <c r="I313" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -8980,7 +8986,7 @@
         <v>16</v>
       </c>
       <c r="B314" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C314" t="s">
         <v>29</v>
@@ -8995,7 +9001,7 @@
         <v>0.1</v>
       </c>
       <c r="I314" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -9003,7 +9009,7 @@
         <v>16</v>
       </c>
       <c r="B315" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C315" t="s">
         <v>29</v>
@@ -9018,7 +9024,7 @@
         <v>0.1</v>
       </c>
       <c r="I315" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -9026,7 +9032,7 @@
         <v>16</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -9041,7 +9047,7 @@
         <v>0.1</v>
       </c>
       <c r="I316" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -9049,7 +9055,7 @@
         <v>16</v>
       </c>
       <c r="B317" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -9064,7 +9070,7 @@
         <v>0.1</v>
       </c>
       <c r="I317" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -9072,7 +9078,7 @@
         <v>16</v>
       </c>
       <c r="B318" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -9087,7 +9093,7 @@
         <v>0.1</v>
       </c>
       <c r="I318" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -9095,7 +9101,7 @@
         <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -9110,7 +9116,7 @@
         <v>0.1</v>
       </c>
       <c r="I319" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="432" spans="11:11" x14ac:dyDescent="0.2">
